--- a/BEMFSimulation/ExcelResults/LineVoltage4500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage4500.xlsx
@@ -408,13 +408,13 @@
         <v>3.703703703703704e-05</v>
       </c>
       <c r="B2">
-        <v>-292.6207877507074</v>
+        <v>-295.3754219712368</v>
       </c>
       <c r="C2">
-        <v>607.5618935074492</v>
+        <v>619.1124677902675</v>
       </c>
       <c r="D2">
-        <v>-314.9411057567418</v>
+        <v>-323.7370458190307</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>7.407407407407407e-05</v>
       </c>
       <c r="B3">
-        <v>-263.5801604145878</v>
+        <v>-270.9646285726029</v>
       </c>
       <c r="C3">
-        <v>590.3186978368134</v>
+        <v>609.1037774425579</v>
       </c>
       <c r="D3">
-        <v>-326.7385374222256</v>
+        <v>-338.1391488699551</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B4">
-        <v>-203.1877273430754</v>
+        <v>-215.5652071220155</v>
       </c>
       <c r="C4">
-        <v>554.6987145256645</v>
+        <v>577.6898593431545</v>
       </c>
       <c r="D4">
-        <v>-351.5109871825891</v>
+        <v>-362.1246522211391</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001481481481481481</v>
       </c>
       <c r="B5">
-        <v>-123.8656023421761</v>
+        <v>-121.4815385679517</v>
       </c>
       <c r="C5">
-        <v>510.264329088695</v>
+        <v>511.5217015194015</v>
       </c>
       <c r="D5">
-        <v>-386.3987267465188</v>
+        <v>-390.0401629514499</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001851851851851852</v>
       </c>
       <c r="B6">
-        <v>-59.70107983731499</v>
+        <v>-57.57424993657426</v>
       </c>
       <c r="C6">
-        <v>480.3736824084897</v>
+        <v>495.333409317346</v>
       </c>
       <c r="D6">
-        <v>-420.6726025711748</v>
+        <v>-437.7591593807717</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B7">
-        <v>-26.62231648320179</v>
+        <v>-29.04138681763689</v>
       </c>
       <c r="C7">
-        <v>465.1298853415358</v>
+        <v>481.0197046900458</v>
       </c>
       <c r="D7">
-        <v>-438.507568858334</v>
+        <v>-451.9783178724089</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002592592592592593</v>
       </c>
       <c r="B8">
-        <v>-7.256138216692989</v>
+        <v>-10.86224582006787</v>
       </c>
       <c r="C8">
-        <v>467.0832311327448</v>
+        <v>474.1504085652555</v>
       </c>
       <c r="D8">
-        <v>-459.8270929160518</v>
+        <v>-463.2881627451876</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002962962962962963</v>
       </c>
       <c r="B9">
-        <v>6.895087439257281</v>
+        <v>8.338200957163878</v>
       </c>
       <c r="C9">
-        <v>461.4080616920275</v>
+        <v>465.4515243713879</v>
       </c>
       <c r="D9">
-        <v>-468.3031491312848</v>
+        <v>-473.7897253285518</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B10">
-        <v>26.26784150809902</v>
+        <v>29.48235713715212</v>
       </c>
       <c r="C10">
-        <v>439.7075400304209</v>
+        <v>448.5622951735437</v>
       </c>
       <c r="D10">
-        <v>-465.9753815385199</v>
+        <v>-478.0446523106958</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0003703703703703704</v>
       </c>
       <c r="B11">
-        <v>58.91837101312366</v>
+        <v>59.18840853635294</v>
       </c>
       <c r="C11">
-        <v>422.2033737276618</v>
+        <v>443.3147530072171</v>
       </c>
       <c r="D11">
-        <v>-481.1217447407854</v>
+        <v>-502.5031615435701</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004074074074074074</v>
       </c>
       <c r="B12">
-        <v>123.3374212331771</v>
+        <v>126.8835354752822</v>
       </c>
       <c r="C12">
-        <v>387.6918504681092</v>
+        <v>391.7084733877017</v>
       </c>
       <c r="D12">
-        <v>-511.0292717012863</v>
+        <v>-518.5920088629839</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B13">
-        <v>201.913419188378</v>
+        <v>210.2773455795018</v>
       </c>
       <c r="C13">
-        <v>352.5944246721222</v>
+        <v>357.4549439128972</v>
       </c>
       <c r="D13">
-        <v>-554.5078438605001</v>
+        <v>-567.732289492399</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0004814814814814814</v>
       </c>
       <c r="B14">
-        <v>262.9335482221757</v>
+        <v>274.1439172246256</v>
       </c>
       <c r="C14">
-        <v>326.7238081862134</v>
+        <v>337.9351134976271</v>
       </c>
       <c r="D14">
-        <v>-589.6573564083891</v>
+        <v>-612.0790307222528</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005185185185185185</v>
       </c>
       <c r="B15">
-        <v>291.7892913179722</v>
+        <v>293.3290376150526</v>
       </c>
       <c r="C15">
-        <v>313.9871726546262</v>
+        <v>321.8465601506018</v>
       </c>
       <c r="D15">
-        <v>-605.7764639725983</v>
+        <v>-615.1755977656544</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B16">
-        <v>310.7837249677759</v>
+        <v>314.6349506832989</v>
       </c>
       <c r="C16">
-        <v>310.2873444629948</v>
+        <v>315.8833674200598</v>
       </c>
       <c r="D16">
-        <v>-621.0710694307706</v>
+        <v>-630.5183181033588</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0005925925925925926</v>
       </c>
       <c r="B17">
-        <v>314.2046839667408</v>
+        <v>321.8334893352951</v>
       </c>
       <c r="C17">
-        <v>292.7105080075726</v>
+        <v>295.622765481701</v>
       </c>
       <c r="D17">
-        <v>-606.9151919743134</v>
+        <v>-617.4562548169961</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0006296296296296296</v>
       </c>
       <c r="B18">
-        <v>325.8286634447533</v>
+        <v>338.1471332746384</v>
       </c>
       <c r="C18">
-        <v>263.746860703792</v>
+        <v>272.1101981390441</v>
       </c>
       <c r="D18">
-        <v>-589.5755241485454</v>
+        <v>-610.2573314136826</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B19">
-        <v>352.0430883227717</v>
+        <v>363.5833832299314</v>
       </c>
       <c r="C19">
-        <v>203.9126093498945</v>
+        <v>215.7310902699521</v>
       </c>
       <c r="D19">
-        <v>-555.9556976726661</v>
+        <v>-579.3144734998834</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007037037037037037</v>
       </c>
       <c r="B20">
-        <v>387.4993012256301</v>
+        <v>391.3238151627639</v>
       </c>
       <c r="C20">
-        <v>123.9804752183778</v>
+        <v>122.757678303406</v>
       </c>
       <c r="D20">
-        <v>-511.4797764440079</v>
+        <v>-514.0814934661699</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0007407407407407407</v>
       </c>
       <c r="B21">
-        <v>421.6924330731924</v>
+        <v>439.325344566058</v>
       </c>
       <c r="C21">
-        <v>59.50772473129798</v>
+        <v>58.67649859354083</v>
       </c>
       <c r="D21">
-        <v>-481.2001578044903</v>
+        <v>-498.0018431595989</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B22">
-        <v>439.0692237860479</v>
+        <v>452.0415828134097</v>
       </c>
       <c r="C22">
-        <v>26.93413714682944</v>
+        <v>29.61459947921026</v>
       </c>
       <c r="D22">
-        <v>-466.0033609328774</v>
+        <v>-481.65618229262</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0008148148148148148</v>
       </c>
       <c r="B23">
-        <v>459.9453491322129</v>
+        <v>464.1878085201131</v>
       </c>
       <c r="C23">
-        <v>7.47557281420157</v>
+        <v>9.895599180015864</v>
       </c>
       <c r="D23">
-        <v>-467.4209219464145</v>
+        <v>-474.083407700129</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0008518518518518518</v>
       </c>
       <c r="B24">
-        <v>467.9969088741348</v>
+        <v>476.0163897697653</v>
       </c>
       <c r="C24">
-        <v>-7.02207902741074</v>
+        <v>-9.552696244362266</v>
       </c>
       <c r="D24">
-        <v>-460.9748298467241</v>
+        <v>-466.4636935254031</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B25">
-        <v>466.59836483355</v>
+        <v>479.172753287714</v>
       </c>
       <c r="C25">
-        <v>-26.63834992242334</v>
+        <v>-29.36497360590326</v>
       </c>
       <c r="D25">
-        <v>-439.9600149111267</v>
+        <v>-449.8077796818108</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0009259259259259259</v>
       </c>
       <c r="B26">
-        <v>482.0882915829843</v>
+        <v>501.2060921492706</v>
       </c>
       <c r="C26">
-        <v>-59.02146050903492</v>
+        <v>-57.78667093988145</v>
       </c>
       <c r="D26">
-        <v>-423.0668310739494</v>
+        <v>-443.4194212093892</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0009629629629629629</v>
       </c>
       <c r="B27">
-        <v>512.1591818231809</v>
+        <v>516.400143442085</v>
       </c>
       <c r="C27">
-        <v>-123.297850965932</v>
+        <v>-124.8796574055974</v>
       </c>
       <c r="D27">
-        <v>-388.861330857249</v>
+        <v>-391.5204860364876</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001</v>
       </c>
       <c r="B28">
-        <v>556.4541864652933</v>
+        <v>568.6044133772316</v>
       </c>
       <c r="C28">
-        <v>-202.5550917212237</v>
+        <v>-210.642924582686</v>
       </c>
       <c r="D28">
-        <v>-353.8990947440697</v>
+        <v>-357.9614887945456</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001037037037037037</v>
       </c>
       <c r="B29">
-        <v>590.7416083698091</v>
+        <v>614.5516256846462</v>
       </c>
       <c r="C29">
-        <v>-263.6039819577387</v>
+        <v>-275.2671735066077</v>
       </c>
       <c r="D29">
-        <v>-327.1376264120704</v>
+        <v>-339.2844521780385</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001074074074074074</v>
       </c>
       <c r="B30">
-        <v>605.7728488424809</v>
+        <v>617.288333768226</v>
       </c>
       <c r="C30">
-        <v>-292.1384498266492</v>
+        <v>-294.1986288574694</v>
       </c>
       <c r="D30">
-        <v>-313.6343990158318</v>
+        <v>-323.0897049107567</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B31">
-        <v>620.5839775142799</v>
+        <v>629.1936197566308</v>
       </c>
       <c r="C31">
-        <v>-310.6772496322574</v>
+        <v>-314.5276950135461</v>
       </c>
       <c r="D31">
-        <v>-309.9067278820226</v>
+        <v>-314.6659247430847</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001148148148148148</v>
       </c>
       <c r="B32">
-        <v>606.453392669302</v>
+        <v>613.6299474668028</v>
       </c>
       <c r="C32">
-        <v>-314.2144381607826</v>
+        <v>-320.9469179509674</v>
       </c>
       <c r="D32">
-        <v>-292.2389545085194</v>
+        <v>-292.6830295158355</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001185185185185185</v>
       </c>
       <c r="B33">
-        <v>589.2404624290714</v>
+        <v>608.5266593207241</v>
       </c>
       <c r="C33">
-        <v>-326.0061194744948</v>
+        <v>-337.5099318676973</v>
       </c>
       <c r="D33">
-        <v>-263.2343429545767</v>
+        <v>-271.0167274530268</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001222222222222222</v>
       </c>
       <c r="B34">
-        <v>555.4982262516273</v>
+        <v>579.7703719835147</v>
       </c>
       <c r="C34">
-        <v>-351.8677761166961</v>
+        <v>-363.0508230483745</v>
       </c>
       <c r="D34">
-        <v>-203.6304501349313</v>
+        <v>-216.7195489351402</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001259259259259259</v>
       </c>
       <c r="B35">
-        <v>511.1512270580376</v>
+        <v>512.9078754269291</v>
       </c>
       <c r="C35">
-        <v>-387.1326936921854</v>
+        <v>-389.8970578157895</v>
       </c>
       <c r="D35">
-        <v>-124.0185333658523</v>
+        <v>-123.0108176111396</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001296296296296296</v>
       </c>
       <c r="B36">
-        <v>481.0775443701754</v>
+        <v>495.7386891305139</v>
       </c>
       <c r="C36">
-        <v>-421.3199760410028</v>
+        <v>-437.9562032655409</v>
       </c>
       <c r="D36">
-        <v>-59.75756832917261</v>
+        <v>-57.78248586497295</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B37">
-        <v>466.1851526533007</v>
+        <v>481.0378588696629</v>
       </c>
       <c r="C37">
-        <v>-439.3583621111768</v>
+        <v>-452.4549980964482</v>
       </c>
       <c r="D37">
-        <v>-26.82679054212394</v>
+        <v>-28.58286077321472</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.00137037037037037</v>
       </c>
       <c r="B38">
-        <v>467.5516455275991</v>
+        <v>474.07147589333</v>
       </c>
       <c r="C38">
-        <v>-460.2563767354255</v>
+        <v>-463.8171994667337</v>
       </c>
       <c r="D38">
-        <v>-7.295268792173601</v>
+        <v>-10.25427642659633</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001407407407407407</v>
       </c>
       <c r="B39">
-        <v>461.5767641754481</v>
+        <v>466.5460352513721</v>
       </c>
       <c r="C39">
-        <v>-468.7915557434038</v>
+        <v>-475.1848660956285</v>
       </c>
       <c r="D39">
-        <v>7.2147915679557</v>
+        <v>8.638830844256432</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001444444444444444</v>
       </c>
       <c r="B40">
-        <v>439.3903703844345</v>
+        <v>449.4807146550275</v>
       </c>
       <c r="C40">
-        <v>-465.9420606795594</v>
+        <v>-478.6036410072937</v>
       </c>
       <c r="D40">
-        <v>26.55169029512493</v>
+        <v>29.12292635226618</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001481481481481481</v>
       </c>
       <c r="B41">
-        <v>422.3968018959879</v>
+        <v>444.8098047298021</v>
       </c>
       <c r="C41">
-        <v>-481.3282726377689</v>
+        <v>-503.3506261345121</v>
       </c>
       <c r="D41">
-        <v>58.931470741781</v>
+        <v>58.54082140471004</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001518518518518518</v>
       </c>
       <c r="B42">
-        <v>388.2594014160471</v>
+        <v>391.7680219614225</v>
       </c>
       <c r="C42">
-        <v>-511.4524141289893</v>
+        <v>-518.2803269098902</v>
       </c>
       <c r="D42">
-        <v>123.1930127129422</v>
+        <v>126.5123049484677</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001555555555555555</v>
       </c>
       <c r="B43">
-        <v>353.0482125750142</v>
+        <v>358.0704303372898</v>
       </c>
       <c r="C43">
-        <v>-555.3624975906356</v>
+        <v>-569.4788880524591</v>
       </c>
       <c r="D43">
-        <v>202.3142850156214</v>
+        <v>211.4084577151693</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001592592592592592</v>
       </c>
       <c r="B44">
-        <v>327.0291265764974</v>
+        <v>339.1065035915935</v>
       </c>
       <c r="C44">
-        <v>-590.6797608111815</v>
+        <v>-614.2202577324266</v>
       </c>
       <c r="D44">
-        <v>263.650634234684</v>
+        <v>275.1137541408331</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.00162962962962963</v>
       </c>
       <c r="B45">
-        <v>314.3252958398254</v>
+        <v>321.5874848037951</v>
       </c>
       <c r="C45">
-        <v>-606.9944134161129</v>
+        <v>-614.0541347683562</v>
       </c>
       <c r="D45">
-        <v>292.6691175762875</v>
+        <v>292.4666499645611</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B46">
-        <v>310.8179958631433</v>
+        <v>316.8029302100192</v>
       </c>
       <c r="C46">
-        <v>-622.3936604246995</v>
+        <v>-633.0795157791682</v>
       </c>
       <c r="D46">
-        <v>311.5756645615562</v>
+        <v>316.276585569149</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001703703703703704</v>
       </c>
       <c r="B47">
-        <v>292.5812079811362</v>
+        <v>295.343025313154</v>
       </c>
       <c r="C47">
-        <v>-607.5258942032376</v>
+        <v>-619.092723267551</v>
       </c>
       <c r="D47">
-        <v>314.9446862221014</v>
+        <v>323.749697954397</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001740740740740741</v>
       </c>
       <c r="B48">
-        <v>263.5292157148753</v>
+        <v>270.9287888348056</v>
       </c>
       <c r="C48">
-        <v>-590.2979015971246</v>
+        <v>-609.1032862661368</v>
       </c>
       <c r="D48">
-        <v>326.7686858822492</v>
+        <v>338.1744974313312</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001777777777777778</v>
       </c>
       <c r="B49">
-        <v>203.07070220909</v>
+        <v>215.4254368376841</v>
       </c>
       <c r="C49">
-        <v>-554.6268369846953</v>
+        <v>-577.5794731072161</v>
       </c>
       <c r="D49">
-        <v>351.5561347756052</v>
+        <v>362.1540362695321</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001814814814814815</v>
       </c>
       <c r="B50">
-        <v>123.7594613282044</v>
+        <v>121.3699182114189</v>
       </c>
       <c r="C50">
-        <v>-510.2089316230568</v>
+        <v>-511.4721818981683</v>
       </c>
       <c r="D50">
-        <v>386.4494702948524</v>
+        <v>390.1022636867493</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001851851851851852</v>
       </c>
       <c r="B51">
-        <v>59.63027189858686</v>
+        <v>57.5053253790185</v>
       </c>
       <c r="C51">
-        <v>-480.3442343708247</v>
+        <v>-495.3196845949661</v>
       </c>
       <c r="D51">
-        <v>420.7139624722379</v>
+        <v>437.8143592159475</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001888888888888889</v>
       </c>
       <c r="B52">
-        <v>26.58946447214504</v>
+        <v>29.01800497838087</v>
       </c>
       <c r="C52">
-        <v>-465.1180240561653</v>
+        <v>-480.9932536622404</v>
       </c>
       <c r="D52">
-        <v>438.5285595840203</v>
+        <v>451.9752486838595</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001925925925925926</v>
       </c>
       <c r="B53">
-        <v>7.233673298755832</v>
+        <v>10.83664488592214</v>
       </c>
       <c r="C53">
-        <v>-467.0921265268107</v>
+        <v>-474.1575702354554</v>
       </c>
       <c r="D53">
-        <v>459.8584532280549</v>
+        <v>463.3209253495332</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001962962962962963</v>
       </c>
       <c r="B54">
-        <v>-6.917126783035258</v>
+        <v>-8.367494606801728</v>
       </c>
       <c r="C54">
-        <v>-461.3810034094566</v>
+        <v>-465.4217338994375</v>
       </c>
       <c r="D54">
-        <v>468.298130192492</v>
+        <v>473.7892285062392</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.002</v>
       </c>
       <c r="B55">
-        <v>-26.30116214721838</v>
+        <v>-29.51881752457572</v>
       </c>
       <c r="C55">
-        <v>-439.6846155638111</v>
+        <v>-448.5427831583295</v>
       </c>
       <c r="D55">
-        <v>465.9857777110294</v>
+        <v>478.0616006829052</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002037037037037037</v>
       </c>
       <c r="B56">
-        <v>-58.98793191400506</v>
+        <v>-59.25292087852313</v>
       </c>
       <c r="C56">
-        <v>-422.160799161653</v>
+        <v>-443.2851852998166</v>
       </c>
       <c r="D56">
-        <v>481.1487310756581</v>
+        <v>502.5381061783397</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002074074074074075</v>
       </c>
       <c r="B57">
-        <v>-123.4438815477647</v>
+        <v>-126.9932050463773</v>
       </c>
       <c r="C57">
-        <v>-387.6422737043889</v>
+        <v>-391.6303330018745</v>
       </c>
       <c r="D57">
-        <v>511.0861552521535</v>
+        <v>518.6235380482517</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002111111111111112</v>
       </c>
       <c r="B58">
-        <v>-202.0291396287681</v>
+        <v>-210.4013725423637</v>
       </c>
       <c r="C58">
-        <v>-352.5462235609954</v>
+        <v>-357.4231861337335</v>
       </c>
       <c r="D58">
-        <v>554.5753631897635</v>
+        <v>567.8245586760971</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002148148148148149</v>
       </c>
       <c r="B59">
-        <v>-262.9886714133182</v>
+        <v>-274.1921717834466</v>
       </c>
       <c r="C59">
-        <v>-326.6971449092708</v>
+        <v>-337.9084108528443</v>
       </c>
       <c r="D59">
-        <v>589.6858163225891</v>
+        <v>612.1005826362909</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002185185185185186</v>
       </c>
       <c r="B60">
-        <v>-291.8248482311071</v>
+        <v>-293.359333756862</v>
       </c>
       <c r="C60">
-        <v>-313.9771385799381</v>
+        <v>-321.8318819651734</v>
       </c>
       <c r="D60">
-        <v>605.8019868110453</v>
+        <v>615.1912157220354</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002222222222222224</v>
       </c>
       <c r="B61">
-        <v>-310.7968429274947</v>
+        <v>-314.6546368064371</v>
       </c>
       <c r="C61">
-        <v>-310.2770896517211</v>
+        <v>-315.8663218806226</v>
       </c>
       <c r="D61">
-        <v>621.0739325792158</v>
+        <v>630.5209586870598</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002259259259259261</v>
       </c>
       <c r="B62">
-        <v>-314.2114639458989</v>
+        <v>-321.8447370161614</v>
       </c>
       <c r="C62">
-        <v>-292.6743729613364</v>
+        <v>-295.5905446762744</v>
       </c>
       <c r="D62">
-        <v>606.8858369072352</v>
+        <v>617.4352816924359</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002296296296296298</v>
       </c>
       <c r="B63">
-        <v>-325.8563164337415</v>
+        <v>-338.1875421424278</v>
       </c>
       <c r="C63">
-        <v>-263.6936846744578</v>
+        <v>-272.0759220882487</v>
       </c>
       <c r="D63">
-        <v>589.5500011081994</v>
+        <v>610.2634642306765</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002333333333333335</v>
       </c>
       <c r="B64">
-        <v>-352.0919345286931</v>
+        <v>-363.613060062855</v>
       </c>
       <c r="C64">
-        <v>-203.796850401435</v>
+        <v>-215.5900150020208</v>
       </c>
       <c r="D64">
-        <v>555.8887849301282</v>
+        <v>579.2030750648757</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002370370370370373</v>
       </c>
       <c r="B65">
-        <v>-387.5502818962317</v>
+        <v>-391.3856349829983</v>
       </c>
       <c r="C65">
-        <v>-123.8723950538952</v>
+        <v>-122.646355702428</v>
       </c>
       <c r="D65">
-        <v>511.422676950127</v>
+        <v>514.0319906854262</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.00240740740740741</v>
       </c>
       <c r="B66">
-        <v>-421.7313274733488</v>
+        <v>-439.3819842683537</v>
       </c>
       <c r="C66">
-        <v>-59.43760184410284</v>
+        <v>-58.60873911745267</v>
       </c>
       <c r="D66">
-        <v>481.1689293174516</v>
+        <v>497.9907233858064</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002444444444444447</v>
       </c>
       <c r="B67">
-        <v>-439.0923105295321</v>
+        <v>-452.0393896396623</v>
       </c>
       <c r="C67">
-        <v>-26.90151144261318</v>
+        <v>-29.58853079829072</v>
       </c>
       <c r="D67">
-        <v>465.9938219721453</v>
+        <v>481.6279204379531</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002481481481481484</v>
       </c>
       <c r="B68">
-        <v>-459.974710663599</v>
+        <v>-464.2188376291124</v>
       </c>
       <c r="C68">
-        <v>-7.452607642248978</v>
+        <v>-9.869092559321871</v>
       </c>
       <c r="D68">
-        <v>467.427318305848</v>
+        <v>474.0879301884343</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002518518518518521</v>
       </c>
       <c r="B69">
-        <v>-467.9925157730066</v>
+        <v>-476.0159243454312</v>
       </c>
       <c r="C69">
-        <v>7.044525156125729</v>
+        <v>9.581508061277646</v>
       </c>
       <c r="D69">
-        <v>460.9479906168809</v>
+        <v>466.4344162841536</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002555555555555559</v>
       </c>
       <c r="B70">
-        <v>-466.608713791328</v>
+        <v>-479.1873012183659</v>
       </c>
       <c r="C70">
-        <v>26.67203841089045</v>
+        <v>29.39880696615353</v>
       </c>
       <c r="D70">
-        <v>439.9366753804376</v>
+        <v>449.7884942522123</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002592592592592596</v>
       </c>
       <c r="B71">
-        <v>-482.1162104592469</v>
+        <v>-501.2405939916765</v>
       </c>
       <c r="C71">
-        <v>59.09039205051548</v>
+        <v>57.8497549793093</v>
       </c>
       <c r="D71">
-        <v>423.0258184087314</v>
+        <v>443.3908390123672</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002629629629629633</v>
       </c>
       <c r="B72">
-        <v>-512.2167574692405</v>
+        <v>-516.428793699694</v>
       </c>
       <c r="C72">
-        <v>123.4050034890994</v>
+        <v>124.989902825874</v>
       </c>
       <c r="D72">
-        <v>388.8117539801412</v>
+        <v>391.4388908738199</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00266666666666667</v>
       </c>
       <c r="B73">
-        <v>-556.5238062151861</v>
+        <v>-568.7026445482733</v>
       </c>
       <c r="C73">
-        <v>202.6715377606943</v>
+        <v>210.7704764394808</v>
       </c>
       <c r="D73">
-        <v>353.8522684544918</v>
+        <v>357.9321681087925</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.002703703703703708</v>
       </c>
       <c r="B74">
-        <v>-590.7618762355771</v>
+        <v>-614.573433899172</v>
       </c>
       <c r="C74">
-        <v>263.6565741926451</v>
+        <v>275.3152696730909</v>
       </c>
       <c r="D74">
-        <v>327.105302042932</v>
+        <v>339.2581642260811</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002740740740740745</v>
       </c>
       <c r="B75">
-        <v>-605.8048347999309</v>
+        <v>-617.2997930184404</v>
       </c>
       <c r="C75">
-        <v>292.1768992912428</v>
+        <v>294.2272174678887</v>
       </c>
       <c r="D75">
-        <v>313.627935508688</v>
+        <v>323.0725755505517</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002777777777777782</v>
       </c>
       <c r="B76">
-        <v>-620.5850853398902</v>
+        <v>-629.1947693634031</v>
       </c>
       <c r="C76">
-        <v>310.6896652407933</v>
+        <v>314.5475650652713</v>
       </c>
       <c r="D76">
-        <v>309.8954200990969</v>
+        <v>314.6472042981318</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002814814814814819</v>
       </c>
       <c r="B77">
-        <v>-606.4184323634433</v>
+        <v>-613.6072546013352</v>
       </c>
       <c r="C77">
-        <v>314.2180328748652</v>
+        <v>320.9577540959343</v>
       </c>
       <c r="D77">
-        <v>292.2003994885781</v>
+        <v>292.6495005054009</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002851851851851857</v>
       </c>
       <c r="B78">
-        <v>-589.2209251606012</v>
+        <v>-608.5321000001816</v>
       </c>
       <c r="C78">
-        <v>326.0370633045387</v>
+        <v>337.5468125450491</v>
       </c>
       <c r="D78">
-        <v>263.1838618560624</v>
+        <v>270.9852874551325</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002888888888888894</v>
       </c>
       <c r="B79">
-        <v>-555.4293182958306</v>
+        <v>-579.6657103924927</v>
       </c>
       <c r="C79">
-        <v>351.9153569844387</v>
+        <v>363.0834780226234</v>
       </c>
       <c r="D79">
-        <v>203.5139613113919</v>
+        <v>216.5822323698692</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002925925925925931</v>
       </c>
       <c r="B80">
-        <v>-511.0953115065845</v>
+        <v>-512.8535794449998</v>
       </c>
       <c r="C80">
-        <v>387.1833788666736</v>
+        <v>389.9576011702175</v>
       </c>
       <c r="D80">
-        <v>123.9119326399109</v>
+        <v>122.8959782747823</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002962962962962968</v>
       </c>
       <c r="B81">
-        <v>-481.0441810933208</v>
+        <v>-495.7298095168273</v>
       </c>
       <c r="C81">
-        <v>421.3578565000752</v>
+        <v>438.0163319418311</v>
       </c>
       <c r="D81">
-        <v>59.68632459324566</v>
+        <v>57.7134775749962</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003000000000000006</v>
       </c>
       <c r="B82">
-        <v>-466.1752356760607</v>
+        <v>-481.0077662295587</v>
       </c>
       <c r="C82">
-        <v>439.3807960925772</v>
+        <v>452.4500429022145</v>
       </c>
       <c r="D82">
-        <v>26.79443958348349</v>
+        <v>28.55772332734423</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003037037037037043</v>
       </c>
       <c r="B83">
-        <v>-467.5564651831926</v>
+        <v>-474.0790475840683</v>
       </c>
       <c r="C83">
-        <v>460.284103600179</v>
+        <v>463.8492800249501</v>
       </c>
       <c r="D83">
-        <v>7.272361583013549</v>
+        <v>10.22976755911827</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.00307407407407408</v>
       </c>
       <c r="B84">
-        <v>-461.5498034361866</v>
+        <v>-466.5156616452482</v>
       </c>
       <c r="C84">
-        <v>468.7869623229653</v>
+        <v>475.1830897790173</v>
       </c>
       <c r="D84">
-        <v>-7.237158886778786</v>
+        <v>-8.667428133769107</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003111111111111117</v>
       </c>
       <c r="B85">
-        <v>-439.3691019089486</v>
+        <v>-449.4627956160924</v>
       </c>
       <c r="C85">
-        <v>465.9539491157093</v>
+        <v>478.6212538379871</v>
       </c>
       <c r="D85">
-        <v>-26.58484720676074</v>
+        <v>-29.15845822189462</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003148148148148155</v>
       </c>
       <c r="B86">
-        <v>-422.3577296737772</v>
+        <v>-444.7805800632212</v>
       </c>
       <c r="C86">
-        <v>481.3592442227048</v>
+        <v>503.3853599121346</v>
       </c>
       <c r="D86">
-        <v>-59.0015145489276</v>
+        <v>-58.60477984891338</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003185185185185192</v>
       </c>
       <c r="B87">
-        <v>-388.2075275431626</v>
+        <v>-391.6887069041012</v>
       </c>
       <c r="C87">
-        <v>511.5072237686013</v>
+        <v>518.3133161434289</v>
       </c>
       <c r="D87">
-        <v>-123.2996962254387</v>
+        <v>-126.6246092393277</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003222222222222229</v>
       </c>
       <c r="B88">
-        <v>-353.0021563768252</v>
+        <v>-358.039518307557</v>
       </c>
       <c r="C88">
-        <v>555.4324344576846</v>
+        <v>569.5733665981522</v>
       </c>
       <c r="D88">
-        <v>-202.4302780808595</v>
+        <v>-211.5338482905952</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003259259259259266</v>
       </c>
       <c r="B89">
-        <v>-326.9992909026464</v>
+        <v>-339.0778979003719</v>
       </c>
       <c r="C89">
-        <v>590.7039799747447</v>
+        <v>614.236701693852</v>
       </c>
       <c r="D89">
-        <v>-263.7046890720983</v>
+        <v>-275.1588037934801</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.003296296296296304</v>
       </c>
       <c r="B90">
-        <v>-314.3176773426947</v>
+        <v>-321.573599941504</v>
       </c>
       <c r="C90">
-        <v>607.023975391812</v>
+        <v>614.0716000527166</v>
       </c>
       <c r="D90">
-        <v>-292.7062980491173</v>
+        <v>-292.4980001112126</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage4500.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage4500.xlsx
@@ -408,13 +408,13 @@
         <v>3.703703703703704e-05</v>
       </c>
       <c r="B2">
-        <v>-295.3754219712368</v>
+        <v>-299.6733295759701</v>
       </c>
       <c r="C2">
-        <v>619.1124677902675</v>
+        <v>622.5567787235304</v>
       </c>
       <c r="D2">
-        <v>-323.7370458190307</v>
+        <v>-322.8834491475604</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>7.407407407407407e-05</v>
       </c>
       <c r="B3">
-        <v>-270.9646285726029</v>
+        <v>-270.370697714709</v>
       </c>
       <c r="C3">
-        <v>609.1037774425579</v>
+        <v>605.755321076344</v>
       </c>
       <c r="D3">
-        <v>-338.1391488699551</v>
+        <v>-335.3846233616349</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B4">
-        <v>-215.5652071220155</v>
+        <v>-208.5455292995194</v>
       </c>
       <c r="C4">
-        <v>577.6898593431545</v>
+        <v>569.514900814137</v>
       </c>
       <c r="D4">
-        <v>-362.1246522211391</v>
+        <v>-360.9693715146177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001481481481481481</v>
       </c>
       <c r="B5">
-        <v>-121.4815385679517</v>
+        <v>-126.8073474083868</v>
       </c>
       <c r="C5">
-        <v>511.5217015194015</v>
+        <v>522.7025705400436</v>
       </c>
       <c r="D5">
-        <v>-390.0401629514499</v>
+        <v>-395.8952231316567</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001851851851851852</v>
       </c>
       <c r="B6">
-        <v>-57.57424993657426</v>
+        <v>-61.14360106716856</v>
       </c>
       <c r="C6">
-        <v>495.333409317346</v>
+        <v>492.7052893014338</v>
       </c>
       <c r="D6">
-        <v>-437.7591593807717</v>
+        <v>-431.5616882342652</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B7">
-        <v>-29.04138681763689</v>
+        <v>-27.340446325421</v>
       </c>
       <c r="C7">
-        <v>481.0197046900458</v>
+        <v>476.2541000940117</v>
       </c>
       <c r="D7">
-        <v>-451.9783178724089</v>
+        <v>-448.9136537685907</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002592592592592593</v>
       </c>
       <c r="B8">
-        <v>-10.86224582006787</v>
+        <v>-7.571594122604552</v>
       </c>
       <c r="C8">
-        <v>474.1504085652555</v>
+        <v>480.3171923423956</v>
       </c>
       <c r="D8">
-        <v>-463.2881627451876</v>
+        <v>-472.745598219791</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002962962962962963</v>
       </c>
       <c r="B9">
-        <v>8.338200957163878</v>
+        <v>7.145317797110238</v>
       </c>
       <c r="C9">
-        <v>465.4515243713879</v>
+        <v>473.2881284358346</v>
       </c>
       <c r="D9">
-        <v>-473.7897253285518</v>
+        <v>-480.4334462329448</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B10">
-        <v>29.48235713715212</v>
+        <v>27.22167772711984</v>
       </c>
       <c r="C10">
-        <v>448.5622951735437</v>
+        <v>450.6376891871367</v>
       </c>
       <c r="D10">
-        <v>-478.0446523106958</v>
+        <v>-477.8593669142566</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0003703703703703704</v>
       </c>
       <c r="B11">
-        <v>59.18840853635294</v>
+        <v>60.53573546411761</v>
       </c>
       <c r="C11">
-        <v>443.3147530072171</v>
+        <v>433.4896774760441</v>
       </c>
       <c r="D11">
-        <v>-502.5031615435701</v>
+        <v>-494.0254129401617</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0004074074074074074</v>
       </c>
       <c r="B12">
-        <v>126.8835354752822</v>
+        <v>126.6867960142747</v>
       </c>
       <c r="C12">
-        <v>391.7084733877017</v>
+        <v>397.2314465219551</v>
       </c>
       <c r="D12">
-        <v>-518.5920088629839</v>
+        <v>-523.9182425362299</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B13">
-        <v>210.2773455795018</v>
+        <v>206.9559987266111</v>
       </c>
       <c r="C13">
-        <v>357.4549439128972</v>
+        <v>361.5350607595631</v>
       </c>
       <c r="D13">
-        <v>-567.732289492399</v>
+        <v>-568.4910594861742</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0004814814814814814</v>
       </c>
       <c r="B14">
-        <v>274.1439172246256</v>
+        <v>269.6208313279749</v>
       </c>
       <c r="C14">
-        <v>337.9351134976271</v>
+        <v>334.9783468890719</v>
       </c>
       <c r="D14">
-        <v>-612.0790307222528</v>
+        <v>-604.5991782170468</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0005185185185185185</v>
       </c>
       <c r="B15">
-        <v>293.3290376150526</v>
+        <v>299.1449817106361</v>
       </c>
       <c r="C15">
-        <v>321.8465601506018</v>
+        <v>321.757982008904</v>
       </c>
       <c r="D15">
-        <v>-615.1755977656544</v>
+        <v>-620.9029637195401</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0005555555555555556</v>
       </c>
       <c r="B16">
-        <v>314.6349506832989</v>
+        <v>319.2605063776841</v>
       </c>
       <c r="C16">
-        <v>315.8833674200598</v>
+        <v>318.8947549578853</v>
       </c>
       <c r="D16">
-        <v>-630.5183181033588</v>
+        <v>-638.1552613355693</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0005925925925925926</v>
       </c>
       <c r="B17">
-        <v>321.8334893352951</v>
+        <v>321.9141653859722</v>
       </c>
       <c r="C17">
-        <v>295.622765481701</v>
+        <v>299.5517716790063</v>
       </c>
       <c r="D17">
-        <v>-617.4562548169961</v>
+        <v>-621.4659370649786</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0006296296296296296</v>
       </c>
       <c r="B18">
-        <v>338.1471332746384</v>
+        <v>334.4513438479314</v>
       </c>
       <c r="C18">
-        <v>272.1101981390441</v>
+        <v>270.5568655514581</v>
       </c>
       <c r="D18">
-        <v>-610.2573314136826</v>
+        <v>-605.0082093993894</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B19">
-        <v>363.5833832299314</v>
+        <v>361.5402948975188</v>
       </c>
       <c r="C19">
-        <v>215.7310902699521</v>
+        <v>209.3695167713648</v>
       </c>
       <c r="D19">
-        <v>-579.3144734998834</v>
+        <v>-570.9098116688835</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0007037037037037037</v>
       </c>
       <c r="B20">
-        <v>391.3238151627639</v>
+        <v>397.1923601607616</v>
       </c>
       <c r="C20">
-        <v>122.757678303406</v>
+        <v>126.920334897634</v>
       </c>
       <c r="D20">
-        <v>-514.0814934661699</v>
+        <v>-524.1126950583956</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0007407407407407407</v>
       </c>
       <c r="B21">
-        <v>439.325344566058</v>
+        <v>432.5167577139723</v>
       </c>
       <c r="C21">
-        <v>58.67649859354083</v>
+        <v>60.99312113198226</v>
       </c>
       <c r="D21">
-        <v>-498.0018431595989</v>
+        <v>-493.5098788459546</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0007777777777777777</v>
       </c>
       <c r="B22">
-        <v>452.0415828134097</v>
+        <v>449.4412531673488</v>
       </c>
       <c r="C22">
-        <v>29.61459947921026</v>
+        <v>27.64590754184891</v>
       </c>
       <c r="D22">
-        <v>-481.65618229262</v>
+        <v>-477.0871607091977</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0008148148148148148</v>
       </c>
       <c r="B23">
-        <v>464.1878085201131</v>
+        <v>472.8860212589685</v>
       </c>
       <c r="C23">
-        <v>9.895599180015864</v>
+        <v>7.648471314932266</v>
       </c>
       <c r="D23">
-        <v>-474.083407700129</v>
+        <v>-480.5344925739008</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0008518518518518518</v>
       </c>
       <c r="B24">
-        <v>476.0163897697653</v>
+        <v>480.1188957673631</v>
       </c>
       <c r="C24">
-        <v>-9.552696244362266</v>
+        <v>-7.411523213405104</v>
       </c>
       <c r="D24">
-        <v>-466.4636935254031</v>
+        <v>-472.707372553958</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0008888888888888888</v>
       </c>
       <c r="B25">
-        <v>479.172753287714</v>
+        <v>478.453680515559</v>
       </c>
       <c r="C25">
-        <v>-29.36497360590326</v>
+        <v>-27.64274338979106</v>
       </c>
       <c r="D25">
-        <v>-449.8077796818108</v>
+        <v>-450.810937125768</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0009259259259259259</v>
       </c>
       <c r="B26">
-        <v>501.2060921492706</v>
+        <v>494.9020821895752</v>
       </c>
       <c r="C26">
-        <v>-57.78667093988145</v>
+        <v>-60.60999817905889</v>
       </c>
       <c r="D26">
-        <v>-443.4194212093892</v>
+        <v>-434.2920840105163</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0009629629629629629</v>
       </c>
       <c r="B27">
-        <v>516.400143442085</v>
+        <v>525.1101660633627</v>
       </c>
       <c r="C27">
-        <v>-124.8796574055974</v>
+        <v>-126.6139750727354</v>
       </c>
       <c r="D27">
-        <v>-391.5204860364876</v>
+        <v>-398.4961909906273</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001</v>
       </c>
       <c r="B28">
-        <v>568.6044133772316</v>
+        <v>570.4107458132689</v>
       </c>
       <c r="C28">
-        <v>-210.642924582686</v>
+        <v>-207.6342151959664</v>
       </c>
       <c r="D28">
-        <v>-357.9614887945456</v>
+        <v>-362.7765306173025</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001037037037037037</v>
       </c>
       <c r="B29">
-        <v>614.5516256846462</v>
+        <v>605.6039671132336</v>
       </c>
       <c r="C29">
-        <v>-275.2671735066077</v>
+        <v>-270.3157423137651</v>
       </c>
       <c r="D29">
-        <v>-339.2844521780385</v>
+        <v>-335.2882247994685</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001074074074074074</v>
       </c>
       <c r="B30">
-        <v>617.288333768226</v>
+        <v>621.2214902975238</v>
       </c>
       <c r="C30">
-        <v>-294.1986288574694</v>
+        <v>-299.5721602169129</v>
       </c>
       <c r="D30">
-        <v>-323.0897049107567</v>
+        <v>-321.6493300806108</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001111111111111111</v>
       </c>
       <c r="B31">
-        <v>629.1936197566308</v>
+        <v>637.7165789773196</v>
       </c>
       <c r="C31">
-        <v>-314.5276950135461</v>
+        <v>-319.1368544502588</v>
       </c>
       <c r="D31">
-        <v>-314.6659247430847</v>
+        <v>-318.5797245270608</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001148148148148148</v>
       </c>
       <c r="B32">
-        <v>613.6299474668028</v>
+        <v>620.872874107801</v>
       </c>
       <c r="C32">
-        <v>-320.9469179509674</v>
+        <v>-321.8690208060195</v>
       </c>
       <c r="D32">
-        <v>-292.6830295158355</v>
+        <v>-299.0038533017815</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001185185185185185</v>
       </c>
       <c r="B33">
-        <v>608.5266593207241</v>
+        <v>604.4094723923592</v>
       </c>
       <c r="C33">
-        <v>-337.5099318676973</v>
+        <v>-334.576094453889</v>
       </c>
       <c r="D33">
-        <v>-271.0167274530268</v>
+        <v>-269.8333779384702</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.001222222222222222</v>
       </c>
       <c r="B34">
-        <v>579.7703719835147</v>
+        <v>570.2865108476703</v>
       </c>
       <c r="C34">
-        <v>-363.0508230483745</v>
+        <v>-361.2917469164941</v>
       </c>
       <c r="D34">
-        <v>-216.7195489351402</v>
+        <v>-208.9947639311762</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001259259259259259</v>
       </c>
       <c r="B35">
-        <v>512.9078754269291</v>
+        <v>523.799239090058</v>
       </c>
       <c r="C35">
-        <v>-389.8970578157895</v>
+        <v>-396.7201569183123</v>
       </c>
       <c r="D35">
-        <v>-123.0108176111396</v>
+        <v>-127.0790821717457</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001296296296296296</v>
       </c>
       <c r="B36">
-        <v>495.7386891305139</v>
+        <v>493.2561731714228</v>
       </c>
       <c r="C36">
-        <v>-437.9562032655409</v>
+        <v>-432.0339294858087</v>
       </c>
       <c r="D36">
-        <v>-57.78248586497295</v>
+        <v>-61.22224368561407</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B37">
-        <v>481.0378588696629</v>
+        <v>477.1623083255498</v>
       </c>
       <c r="C37">
-        <v>-452.4549980964482</v>
+        <v>-449.6825456687919</v>
       </c>
       <c r="D37">
-        <v>-28.58286077321472</v>
+        <v>-27.47976265675786</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.00137037037037037</v>
       </c>
       <c r="B38">
-        <v>474.07147589333</v>
+        <v>480.5232815654134</v>
       </c>
       <c r="C38">
-        <v>-463.8171994667337</v>
+        <v>-473.0632279237797</v>
       </c>
       <c r="D38">
-        <v>-10.25427642659633</v>
+        <v>-7.460053641633692</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001407407407407407</v>
       </c>
       <c r="B39">
-        <v>466.5460352513721</v>
+        <v>473.3912568214974</v>
       </c>
       <c r="C39">
-        <v>-475.1848660956285</v>
+        <v>-480.7758339385683</v>
       </c>
       <c r="D39">
-        <v>8.638830844256432</v>
+        <v>7.384577117070876</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001444444444444444</v>
       </c>
       <c r="B40">
-        <v>449.4807146550275</v>
+        <v>450.1119245489771</v>
       </c>
       <c r="C40">
-        <v>-478.6036410072937</v>
+        <v>-477.5089490118325</v>
       </c>
       <c r="D40">
-        <v>29.12292635226618</v>
+        <v>27.39702446285546</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001481481481481481</v>
       </c>
       <c r="B41">
-        <v>444.8098047298021</v>
+        <v>433.576079625192</v>
       </c>
       <c r="C41">
-        <v>-503.3506261345121</v>
+        <v>-494.1127556574399</v>
       </c>
       <c r="D41">
-        <v>58.54082140471004</v>
+        <v>60.5366760322479</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001518518518518518</v>
       </c>
       <c r="B42">
-        <v>391.7680219614225</v>
+        <v>397.8334791866275</v>
       </c>
       <c r="C42">
-        <v>-518.2803269098902</v>
+        <v>-524.5341924214481</v>
       </c>
       <c r="D42">
-        <v>126.5123049484677</v>
+        <v>126.7007132348207</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001555555555555555</v>
       </c>
       <c r="B43">
-        <v>358.0704303372898</v>
+        <v>361.9779288417078</v>
       </c>
       <c r="C43">
-        <v>-569.4788880524591</v>
+        <v>-569.3703392050671</v>
       </c>
       <c r="D43">
-        <v>211.4084577151693</v>
+        <v>207.3924103633594</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001592592592592592</v>
       </c>
       <c r="B44">
-        <v>339.1065035915935</v>
+        <v>335.1116509796082</v>
       </c>
       <c r="C44">
-        <v>-614.2202577324266</v>
+        <v>-605.3290064898459</v>
       </c>
       <c r="D44">
-        <v>275.1137541408331</v>
+        <v>270.2173555102377</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.00162962962962963</v>
       </c>
       <c r="B45">
-        <v>321.5874848037951</v>
+        <v>322.1137400831262</v>
       </c>
       <c r="C45">
-        <v>-614.0541347683562</v>
+        <v>-622.1513955769167</v>
       </c>
       <c r="D45">
-        <v>292.4666499645611</v>
+        <v>300.0376554937904</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B46">
-        <v>316.8029302100192</v>
+        <v>319.5109027008541</v>
       </c>
       <c r="C46">
-        <v>-633.0795157791682</v>
+        <v>-639.6749615804576</v>
       </c>
       <c r="D46">
-        <v>316.276585569149</v>
+        <v>320.1640588796036</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001703703703703704</v>
       </c>
       <c r="B47">
-        <v>295.343025313154</v>
+        <v>299.6346435216857</v>
       </c>
       <c r="C47">
-        <v>-619.092723267551</v>
+        <v>-622.524674823469</v>
       </c>
       <c r="D47">
-        <v>323.749697954397</v>
+        <v>322.8900313017833</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001740740740740741</v>
       </c>
       <c r="B48">
-        <v>270.9287888348056</v>
+        <v>270.3173217372761</v>
       </c>
       <c r="C48">
-        <v>-609.1032862661368</v>
+        <v>-605.7300431719839</v>
       </c>
       <c r="D48">
-        <v>338.1744974313312</v>
+        <v>335.4127214347078</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001777777777777778</v>
       </c>
       <c r="B49">
-        <v>215.4254368376841</v>
+        <v>208.4252106335571</v>
       </c>
       <c r="C49">
-        <v>-577.5794731072161</v>
+        <v>-569.4415862299347</v>
       </c>
       <c r="D49">
-        <v>362.1540362695321</v>
+        <v>361.0163755963775</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001814814814814815</v>
       </c>
       <c r="B50">
-        <v>121.3699182114189</v>
+        <v>126.6992604244206</v>
       </c>
       <c r="C50">
-        <v>-511.4721818981683</v>
+        <v>-522.6470512661072</v>
       </c>
       <c r="D50">
-        <v>390.1022636867493</v>
+        <v>395.9477908416866</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001851851851851852</v>
       </c>
       <c r="B51">
-        <v>57.5053253790185</v>
+        <v>61.07029354994449</v>
       </c>
       <c r="C51">
-        <v>-495.3196845949661</v>
+        <v>-492.6714011476123</v>
       </c>
       <c r="D51">
-        <v>437.8143592159475</v>
+        <v>431.6011075976678</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001888888888888889</v>
       </c>
       <c r="B52">
-        <v>29.01800497838087</v>
+        <v>27.30746438699751</v>
       </c>
       <c r="C52">
-        <v>-480.9932536622404</v>
+        <v>-476.2476207284618</v>
       </c>
       <c r="D52">
-        <v>451.9752486838595</v>
+        <v>448.9401563414642</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001925925925925926</v>
       </c>
       <c r="B53">
-        <v>10.83664488592214</v>
+        <v>7.548888628296083</v>
       </c>
       <c r="C53">
-        <v>-474.1575702354554</v>
+        <v>-480.326820325269</v>
       </c>
       <c r="D53">
-        <v>463.3209253495332</v>
+        <v>472.7779316969729</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001962962962962963</v>
       </c>
       <c r="B54">
-        <v>-8.367494606801728</v>
+        <v>-7.168969417442469</v>
       </c>
       <c r="C54">
-        <v>-465.4217338994375</v>
+        <v>-473.2554583958112</v>
       </c>
       <c r="D54">
-        <v>473.7892285062392</v>
+        <v>480.4244278132537</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.002</v>
       </c>
       <c r="B55">
-        <v>-29.51881752457572</v>
+        <v>-27.25562087992083</v>
       </c>
       <c r="C55">
-        <v>-448.5427831583295</v>
+        <v>-450.615015380195</v>
       </c>
       <c r="D55">
-        <v>478.0616006829052</v>
+        <v>477.8706362601158</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.002037037037037037</v>
       </c>
       <c r="B56">
-        <v>-59.25292087852313</v>
+        <v>-60.60731154531089</v>
       </c>
       <c r="C56">
-        <v>-443.2851852998166</v>
+        <v>-433.446925591741</v>
       </c>
       <c r="D56">
-        <v>502.5381061783397</v>
+        <v>494.0542371370519</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.002074074074074075</v>
       </c>
       <c r="B57">
-        <v>-126.9932050463773</v>
+        <v>-126.7960182131149</v>
       </c>
       <c r="C57">
-        <v>-391.6303330018745</v>
+        <v>-397.1793483035855</v>
       </c>
       <c r="D57">
-        <v>518.6235380482517</v>
+        <v>523.9753665167004</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.002111111111111112</v>
       </c>
       <c r="B58">
-        <v>-210.4013725423637</v>
+        <v>-207.0738954401953</v>
       </c>
       <c r="C58">
-        <v>-357.4231861337335</v>
+        <v>-361.4873124359094</v>
       </c>
       <c r="D58">
-        <v>567.8245586760971</v>
+        <v>568.5612078761046</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.002148148148148149</v>
       </c>
       <c r="B59">
-        <v>-274.1921717834466</v>
+        <v>-269.6764208740509</v>
       </c>
       <c r="C59">
-        <v>-337.9084108528443</v>
+        <v>-334.9488409117411</v>
       </c>
       <c r="D59">
-        <v>612.1005826362909</v>
+        <v>604.625261785792</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.002185185185185186</v>
       </c>
       <c r="B60">
-        <v>-293.359333756862</v>
+        <v>-299.1853379703635</v>
       </c>
       <c r="C60">
-        <v>-321.8318819651734</v>
+        <v>-321.751476358407</v>
       </c>
       <c r="D60">
-        <v>615.1912157220354</v>
+        <v>620.9368143287704</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002222222222222224</v>
       </c>
       <c r="B61">
-        <v>-314.6546368064371</v>
+        <v>-319.2725105186725</v>
       </c>
       <c r="C61">
-        <v>-315.8663218806226</v>
+        <v>-318.8833066173887</v>
       </c>
       <c r="D61">
-        <v>630.5209586870598</v>
+        <v>638.1558171360612</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002259259259259261</v>
       </c>
       <c r="B62">
-        <v>-321.8447370161614</v>
+        <v>-321.9177528841479</v>
       </c>
       <c r="C62">
-        <v>-295.5905446762744</v>
+        <v>-299.5120767453593</v>
       </c>
       <c r="D62">
-        <v>617.4352816924359</v>
+        <v>621.4298296295073</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002296296296296298</v>
       </c>
       <c r="B63">
-        <v>-338.1875421424278</v>
+        <v>-334.4822091638804</v>
       </c>
       <c r="C63">
-        <v>-272.0759220882487</v>
+        <v>-270.504271257998</v>
       </c>
       <c r="D63">
-        <v>610.2634642306765</v>
+        <v>604.9864804218785</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.002333333333333335</v>
       </c>
       <c r="B64">
-        <v>-363.613060062855</v>
+        <v>-361.589374705563</v>
       </c>
       <c r="C64">
-        <v>-215.5900150020208</v>
+        <v>-209.2491514087509</v>
       </c>
       <c r="D64">
-        <v>579.2030750648757</v>
+        <v>570.8385261143139</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002370370370370373</v>
       </c>
       <c r="B65">
-        <v>-391.3856349829983</v>
+        <v>-397.2440251250865</v>
       </c>
       <c r="C65">
-        <v>-122.646355702428</v>
+        <v>-126.8106720972135</v>
       </c>
       <c r="D65">
-        <v>514.0319906854262</v>
+        <v>524.0546972223001</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.00240740740740741</v>
       </c>
       <c r="B66">
-        <v>-439.3819842683537</v>
+        <v>-432.5606037603554</v>
       </c>
       <c r="C66">
-        <v>-58.60873911745267</v>
+        <v>-60.92135420909779</v>
       </c>
       <c r="D66">
-        <v>497.9907233858064</v>
+        <v>493.4819579694532</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002444444444444447</v>
       </c>
       <c r="B67">
-        <v>-452.0393896396623</v>
+        <v>-449.4600717676452</v>
       </c>
       <c r="C67">
-        <v>-29.58853079829072</v>
+        <v>-27.61217452015359</v>
       </c>
       <c r="D67">
-        <v>481.6279204379531</v>
+        <v>477.0722462877989</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002481481481481484</v>
       </c>
       <c r="B68">
-        <v>-464.2188376291124</v>
+        <v>-472.9190426533783</v>
       </c>
       <c r="C68">
-        <v>-9.869092559321871</v>
+        <v>-7.625619082117424</v>
       </c>
       <c r="D68">
-        <v>474.0879301884343</v>
+        <v>480.5446617354957</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002518518518518521</v>
       </c>
       <c r="B69">
-        <v>-476.0159243454312</v>
+        <v>-480.1104552182411</v>
       </c>
       <c r="C69">
-        <v>9.581508061277646</v>
+        <v>7.435911077026191</v>
       </c>
       <c r="D69">
-        <v>466.4344162841536</v>
+        <v>472.6745441412149</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002555555555555559</v>
       </c>
       <c r="B70">
-        <v>-479.1873012183659</v>
+        <v>-478.46750478516</v>
       </c>
       <c r="C70">
-        <v>29.39880696615353</v>
+        <v>27.67642056246345</v>
       </c>
       <c r="D70">
-        <v>449.7884942522123</v>
+        <v>450.7910842226966</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002592592592592596</v>
       </c>
       <c r="B71">
-        <v>-501.2405939916765</v>
+        <v>-494.9332610773145</v>
       </c>
       <c r="C71">
-        <v>57.8497549793093</v>
+        <v>60.68130385698922</v>
       </c>
       <c r="D71">
-        <v>443.3908390123672</v>
+        <v>434.2519572203253</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002629629629629633</v>
       </c>
       <c r="B72">
-        <v>-516.428793699694</v>
+        <v>-525.1662645080805</v>
       </c>
       <c r="C72">
-        <v>124.989902825874</v>
+        <v>126.7232372236529</v>
       </c>
       <c r="D72">
-        <v>391.4388908738199</v>
+        <v>398.4430272844277</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.00266666666666667</v>
       </c>
       <c r="B73">
-        <v>-568.7026445482733</v>
+        <v>-570.4815866780484</v>
       </c>
       <c r="C73">
-        <v>210.7704764394808</v>
+        <v>207.7536057254628</v>
       </c>
       <c r="D73">
-        <v>357.9321681087925</v>
+        <v>362.7279809525857</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.002703703703703708</v>
       </c>
       <c r="B74">
-        <v>-614.573433899172</v>
+        <v>-605.6288397355272</v>
       </c>
       <c r="C74">
-        <v>275.3152696730909</v>
+        <v>270.3708203957151</v>
       </c>
       <c r="D74">
-        <v>339.2581642260811</v>
+        <v>335.2580193398122</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002740740740740745</v>
       </c>
       <c r="B75">
-        <v>-617.2997930184404</v>
+        <v>-621.2512012920406</v>
       </c>
       <c r="C75">
-        <v>294.2272174678887</v>
+        <v>299.6102908016333</v>
       </c>
       <c r="D75">
-        <v>323.0725755505517</v>
+        <v>321.6409104904074</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002777777777777782</v>
       </c>
       <c r="B76">
-        <v>-629.1947693634031</v>
+        <v>-637.7187461840302</v>
       </c>
       <c r="C76">
-        <v>314.5475650652713</v>
+        <v>319.150040025566</v>
       </c>
       <c r="D76">
-        <v>314.6472042981318</v>
+        <v>318.5687061584642</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002814814814814819</v>
       </c>
       <c r="B77">
-        <v>-613.6072546013352</v>
+        <v>-620.8404988240795</v>
       </c>
       <c r="C77">
-        <v>320.9577540959343</v>
+        <v>321.8755930386801</v>
       </c>
       <c r="D77">
-        <v>292.6495005054009</v>
+        <v>298.9649057853995</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002851851851851857</v>
       </c>
       <c r="B78">
-        <v>-608.5321000001816</v>
+        <v>-604.3861325756707</v>
       </c>
       <c r="C78">
-        <v>337.5468125450491</v>
+        <v>334.6055082144455</v>
       </c>
       <c r="D78">
-        <v>270.9852874551325</v>
+        <v>269.7806243612252</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002888888888888894</v>
       </c>
       <c r="B79">
-        <v>-579.6657103924927</v>
+        <v>-570.213490914384</v>
       </c>
       <c r="C79">
-        <v>363.0834780226234</v>
+        <v>361.338836373825</v>
       </c>
       <c r="D79">
-        <v>216.5822323698692</v>
+        <v>208.874654540559</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002925925925925931</v>
       </c>
       <c r="B80">
-        <v>-512.8535794449998</v>
+        <v>-523.7390071425345</v>
       </c>
       <c r="C80">
-        <v>389.9576011702175</v>
+        <v>396.7692699562994</v>
       </c>
       <c r="D80">
-        <v>122.8959782747823</v>
+        <v>126.9697371862352</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002962962962962968</v>
       </c>
       <c r="B81">
-        <v>-495.7298095168273</v>
+        <v>-493.2274184398506</v>
       </c>
       <c r="C81">
-        <v>438.0163319418311</v>
+        <v>432.0779334335111</v>
       </c>
       <c r="D81">
-        <v>57.7134775749962</v>
+        <v>61.14948500633946</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.003000000000000006</v>
       </c>
       <c r="B82">
-        <v>-481.0077662295587</v>
+        <v>-477.151626650726</v>
       </c>
       <c r="C82">
-        <v>452.4500429022145</v>
+        <v>449.7057391272872</v>
       </c>
       <c r="D82">
-        <v>28.55772332734423</v>
+        <v>27.44588752343881</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.003037037037037043</v>
       </c>
       <c r="B83">
-        <v>-474.0790475840683</v>
+        <v>-480.5347750688743</v>
       </c>
       <c r="C83">
-        <v>463.8492800249501</v>
+        <v>473.0975772048786</v>
       </c>
       <c r="D83">
-        <v>10.22976755911827</v>
+        <v>7.437197863995664</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.00307407407407408</v>
       </c>
       <c r="B84">
-        <v>-466.5156616452482</v>
+        <v>-473.3552569747543</v>
       </c>
       <c r="C84">
-        <v>475.1830897790173</v>
+        <v>480.7635934915991</v>
       </c>
       <c r="D84">
-        <v>-8.667428133769107</v>
+        <v>-7.408336516844741</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.003111111111111117</v>
       </c>
       <c r="B85">
-        <v>-449.4627956160924</v>
+        <v>-450.0885473531469</v>
       </c>
       <c r="C85">
-        <v>478.6212538379871</v>
+        <v>477.5187133796551</v>
       </c>
       <c r="D85">
-        <v>-29.15845822189462</v>
+        <v>-27.43016602650826</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.003148148148148155</v>
       </c>
       <c r="B86">
-        <v>-444.7805800632212</v>
+        <v>-433.5376215738332</v>
       </c>
       <c r="C86">
-        <v>503.3853599121346</v>
+        <v>494.1457754036075</v>
       </c>
       <c r="D86">
-        <v>-58.60477984891338</v>
+        <v>-60.6081538297743</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.003185185185185192</v>
       </c>
       <c r="B87">
-        <v>-391.6887069041012</v>
+        <v>-397.7807653689484</v>
       </c>
       <c r="C87">
-        <v>518.3133161434289</v>
+        <v>524.5919950662025</v>
       </c>
       <c r="D87">
-        <v>-126.6246092393277</v>
+        <v>-126.8112296972541</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.003222222222222229</v>
       </c>
       <c r="B88">
-        <v>-358.039518307557</v>
+        <v>-361.930624842375</v>
       </c>
       <c r="C88">
-        <v>569.5733665981522</v>
+        <v>569.4414583928541</v>
       </c>
       <c r="D88">
-        <v>-211.5338482905952</v>
+        <v>-207.510833550479</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.003259259259259266</v>
       </c>
       <c r="B89">
-        <v>-339.0778979003719</v>
+        <v>-335.0803328248792</v>
       </c>
       <c r="C89">
-        <v>614.236701693852</v>
+        <v>605.3518095866124</v>
       </c>
       <c r="D89">
-        <v>-275.1588037934801</v>
+        <v>-270.2714767617331</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.003296296296296304</v>
       </c>
       <c r="B90">
-        <v>-321.573599941504</v>
+        <v>-322.1087661706337</v>
       </c>
       <c r="C90">
-        <v>614.0716000527166</v>
+        <v>622.1872331558732</v>
       </c>
       <c r="D90">
-        <v>-292.4980001112126</v>
+        <v>-300.0784669852395</v>
       </c>
     </row>
   </sheetData>
